--- a/Code/Results/Cases/Case_5_175/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_175/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.17133318506029</v>
+        <v>10.25756710338925</v>
       </c>
       <c r="C2">
-        <v>7.925280390252161</v>
+        <v>5.342309548077196</v>
       </c>
       <c r="D2">
-        <v>7.774272153352026</v>
+        <v>9.297245342656401</v>
       </c>
       <c r="E2">
-        <v>11.15523064852123</v>
+        <v>13.7335740058896</v>
       </c>
       <c r="F2">
-        <v>22.64905579245629</v>
+        <v>32.52346818206429</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>13.82912046537398</v>
+        <v>22.24974157687664</v>
       </c>
       <c r="J2">
-        <v>6.37019327007929</v>
+        <v>9.921764148115141</v>
       </c>
       <c r="K2">
-        <v>11.89492065988583</v>
+        <v>10.47487306526676</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.23267919820006</v>
+        <v>18.85652582045357</v>
       </c>
       <c r="O2">
-        <v>15.77093825736113</v>
+        <v>24.48923716574428</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.30685367273845</v>
+        <v>9.984085959012209</v>
       </c>
       <c r="C3">
-        <v>7.413764735643732</v>
+        <v>5.147060776718823</v>
       </c>
       <c r="D3">
-        <v>7.394917599759602</v>
+        <v>9.234468675093204</v>
       </c>
       <c r="E3">
-        <v>10.66949428923478</v>
+        <v>13.66831861141322</v>
       </c>
       <c r="F3">
-        <v>22.28671298757873</v>
+        <v>32.56530234486046</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>13.95610517202986</v>
+        <v>22.33373777365707</v>
       </c>
       <c r="J3">
-        <v>6.261377714889985</v>
+        <v>9.927571469992708</v>
       </c>
       <c r="K3">
-        <v>11.16416494332442</v>
+        <v>10.29322046947316</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.41986492609231</v>
+        <v>18.91345717709838</v>
       </c>
       <c r="O3">
-        <v>15.74581486161867</v>
+        <v>24.55969453908657</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.74471233266523</v>
+        <v>9.813959927715436</v>
       </c>
       <c r="C4">
-        <v>7.081706758574565</v>
+        <v>5.024042825955766</v>
       </c>
       <c r="D4">
-        <v>7.154989742000077</v>
+        <v>9.197417890228213</v>
       </c>
       <c r="E4">
-        <v>10.36585265215892</v>
+        <v>13.63099248755583</v>
       </c>
       <c r="F4">
-        <v>22.07989050969169</v>
+        <v>32.59838166921292</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>14.04392731489003</v>
+        <v>22.38922204329311</v>
       </c>
       <c r="J4">
-        <v>6.197014258644795</v>
+        <v>9.932686044028589</v>
       </c>
       <c r="K4">
-        <v>10.69047535985077</v>
+        <v>10.18169473288713</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.53748345070095</v>
+        <v>18.95006846841527</v>
       </c>
       <c r="O4">
-        <v>15.74298323481969</v>
+        <v>24.60776970458099</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.5077236793577</v>
+        <v>9.7441834292288</v>
       </c>
       <c r="C5">
-        <v>6.94185716551018</v>
+        <v>4.973201039009398</v>
       </c>
       <c r="D5">
-        <v>7.055585471528102</v>
+        <v>9.182708343453506</v>
       </c>
       <c r="E5">
-        <v>10.24094341654087</v>
+        <v>13.61648340286937</v>
       </c>
       <c r="F5">
-        <v>21.99954649608413</v>
+        <v>32.61371867737729</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>14.08209670043081</v>
+        <v>22.41281514391227</v>
       </c>
       <c r="J5">
-        <v>6.171419313769437</v>
+        <v>9.935160187146936</v>
       </c>
       <c r="K5">
-        <v>10.49117222330538</v>
+        <v>10.13630764894357</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.58610718438898</v>
+        <v>18.96540528594443</v>
       </c>
       <c r="O5">
-        <v>15.74488814820969</v>
+        <v>24.62856941878228</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.46789328666112</v>
+        <v>9.73257320973204</v>
       </c>
       <c r="C6">
-        <v>6.918361222458066</v>
+        <v>4.964718264781549</v>
       </c>
       <c r="D6">
-        <v>7.038985095150277</v>
+        <v>9.180289699008878</v>
       </c>
       <c r="E6">
-        <v>10.22013733513122</v>
+        <v>13.61411689918649</v>
       </c>
       <c r="F6">
-        <v>21.98644302798639</v>
+        <v>32.61637745453368</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>14.08857578708312</v>
+        <v>22.416792106563</v>
       </c>
       <c r="J6">
-        <v>6.167208054476162</v>
+        <v>9.93559457725898</v>
       </c>
       <c r="K6">
-        <v>10.45770005923254</v>
+        <v>10.12877652901302</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.59422349798011</v>
+        <v>18.96797719933506</v>
       </c>
       <c r="O6">
-        <v>15.74538600205348</v>
+        <v>24.63209614194815</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.741548289952</v>
+        <v>9.813020569770766</v>
       </c>
       <c r="C7">
-        <v>7.079839064194298</v>
+        <v>5.023359926888387</v>
       </c>
       <c r="D7">
-        <v>7.153655562257478</v>
+        <v>9.197217920337545</v>
       </c>
       <c r="E7">
-        <v>10.36417257066529</v>
+        <v>13.63079395650545</v>
       </c>
       <c r="F7">
-        <v>22.07879102691831</v>
+        <v>32.59858099417733</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>14.04443256323146</v>
+        <v>22.38953624933868</v>
       </c>
       <c r="J7">
-        <v>6.196666488157347</v>
+        <v>9.932717831942437</v>
       </c>
       <c r="K7">
-        <v>10.68781284823507</v>
+        <v>10.18108230425521</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.53813637732803</v>
+        <v>18.95027361439146</v>
       </c>
       <c r="O7">
-        <v>15.74299668443104</v>
+        <v>24.60804532535969</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.87974822691202</v>
+        <v>10.16379096040415</v>
       </c>
       <c r="C8">
-        <v>7.752634830160416</v>
+        <v>5.275682272926254</v>
       </c>
       <c r="D8">
-        <v>7.644995337711593</v>
+        <v>9.275297890751492</v>
       </c>
       <c r="E8">
-        <v>10.98897260930199</v>
+        <v>13.71051277203896</v>
       </c>
       <c r="F8">
-        <v>22.52087450484424</v>
+        <v>32.53635710820753</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>13.87080022999589</v>
+        <v>22.27789161465178</v>
       </c>
       <c r="J8">
-        <v>6.332176210873993</v>
+        <v>9.923445341818041</v>
       </c>
       <c r="K8">
-        <v>11.64815163934149</v>
+        <v>10.41227184375978</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.29667441484794</v>
+        <v>18.87581294114668</v>
       </c>
       <c r="O8">
-        <v>15.75959745738077</v>
+        <v>24.51253063482077</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.86451765565084</v>
+        <v>10.82976924833978</v>
       </c>
       <c r="C9">
-        <v>8.929982572899316</v>
+        <v>5.742607939962267</v>
       </c>
       <c r="D9">
-        <v>8.548273734585262</v>
+        <v>9.439662774317867</v>
       </c>
       <c r="E9">
-        <v>12.16444015540467</v>
+        <v>13.8880027978997</v>
       </c>
       <c r="F9">
-        <v>23.51144509520316</v>
+        <v>32.47306548654721</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>13.6130665454707</v>
+        <v>22.09000344145986</v>
       </c>
       <c r="J9">
-        <v>6.616525005568453</v>
+        <v>9.9175287845464</v>
       </c>
       <c r="K9">
-        <v>13.33283440466801</v>
+        <v>10.86320818063559</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.84362706221481</v>
+        <v>18.74287334184325</v>
       </c>
       <c r="O9">
-        <v>15.89678259223717</v>
+        <v>24.36350302943202</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.17428643255439</v>
+        <v>11.30033681783906</v>
       </c>
       <c r="C10">
-        <v>9.709639582749205</v>
+        <v>6.065149207830128</v>
       </c>
       <c r="D10">
-        <v>9.170185674024813</v>
+        <v>9.566432911740256</v>
       </c>
       <c r="E10">
-        <v>12.99001149169217</v>
+        <v>14.03046189438895</v>
       </c>
       <c r="F10">
-        <v>24.31319273709818</v>
+        <v>32.46242533222458</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>13.48083869284457</v>
+        <v>21.9709167265886</v>
       </c>
       <c r="J10">
-        <v>6.835659850770032</v>
+        <v>9.92062454093602</v>
       </c>
       <c r="K10">
-        <v>14.44998737523694</v>
+        <v>11.18978166969475</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.52199554694202</v>
+        <v>18.65309574235725</v>
       </c>
       <c r="O10">
-        <v>16.06756155285971</v>
+        <v>24.27745002746433</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.73844274671059</v>
+        <v>11.50934082294159</v>
       </c>
       <c r="C11">
-        <v>10.04611803032001</v>
+        <v>6.206822168571673</v>
       </c>
       <c r="D11">
-        <v>9.443304536146304</v>
+        <v>9.625220308046025</v>
       </c>
       <c r="E11">
-        <v>13.35611445915778</v>
+        <v>14.09769235535218</v>
       </c>
       <c r="F11">
-        <v>24.6935567475998</v>
+        <v>32.46536903938014</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>13.43464498335513</v>
+        <v>21.92086331595034</v>
       </c>
       <c r="J11">
-        <v>6.937334572327988</v>
+        <v>9.923639104852251</v>
       </c>
       <c r="K11">
-        <v>14.93226627903843</v>
+        <v>11.33667009771465</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.37782353557671</v>
+        <v>18.61395060943256</v>
       </c>
       <c r="O11">
-        <v>16.16170264985087</v>
+        <v>24.24341141619842</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.94756688008755</v>
+        <v>11.58768337372814</v>
       </c>
       <c r="C12">
-        <v>10.17094679196101</v>
+        <v>6.259701194822862</v>
       </c>
       <c r="D12">
-        <v>9.545274562055619</v>
+        <v>9.647626139655562</v>
       </c>
       <c r="E12">
-        <v>13.4933126173574</v>
+        <v>14.12348195915714</v>
       </c>
       <c r="F12">
-        <v>24.83979791169998</v>
+        <v>32.46760147230453</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>13.41929607566622</v>
+        <v>21.90250244880759</v>
       </c>
       <c r="J12">
-        <v>6.97610333854627</v>
+        <v>9.925010559799112</v>
       </c>
       <c r="K12">
-        <v>15.11119131440768</v>
+        <v>11.39200130176243</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.32351208097414</v>
+        <v>18.59936988239864</v>
       </c>
       <c r="O12">
-        <v>16.19981397714022</v>
+        <v>24.23125774153415</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.90272810489208</v>
+        <v>11.57084773038122</v>
       </c>
       <c r="C13">
-        <v>10.14417733703991</v>
+        <v>6.248347595968555</v>
       </c>
       <c r="D13">
-        <v>9.523378780623929</v>
+        <v>9.642794490392625</v>
       </c>
       <c r="E13">
-        <v>13.46382951042406</v>
+        <v>14.11791328031119</v>
       </c>
       <c r="F13">
-        <v>24.80820486950524</v>
+        <v>32.46707100132702</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>13.42250416045819</v>
+        <v>21.9064303902375</v>
       </c>
       <c r="J13">
-        <v>6.96774221915282</v>
+        <v>9.924704985830539</v>
       </c>
       <c r="K13">
-        <v>15.07282089471697</v>
+        <v>11.38009853395669</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.33519682396127</v>
+        <v>18.602499326349</v>
       </c>
       <c r="O13">
-        <v>16.19149503010724</v>
+        <v>24.23384249499174</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.75573763691315</v>
+        <v>11.51580260617686</v>
       </c>
       <c r="C14">
-        <v>10.0564394752735</v>
+        <v>6.211188204740107</v>
       </c>
       <c r="D14">
-        <v>9.451723038840722</v>
+        <v>9.627060852604943</v>
       </c>
       <c r="E14">
-        <v>13.36743102004407</v>
+        <v>14.09980755430638</v>
       </c>
       <c r="F14">
-        <v>24.70554414634433</v>
+        <v>32.46553031434635</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>13.4333384541807</v>
+        <v>21.91934086130616</v>
       </c>
       <c r="J14">
-        <v>6.940518861398883</v>
+        <v>9.923747334250105</v>
       </c>
       <c r="K14">
-        <v>14.94706062108974</v>
+        <v>11.34122837450082</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.37334976478599</v>
+        <v>18.61274618658626</v>
       </c>
       <c r="O14">
-        <v>16.16478821084518</v>
+        <v>24.24239676681063</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.66511577726154</v>
+        <v>11.48197922368368</v>
       </c>
       <c r="C15">
-        <v>10.00236128370749</v>
+        <v>6.188325621815814</v>
       </c>
       <c r="D15">
-        <v>9.407641279628445</v>
+        <v>9.617441844246123</v>
       </c>
       <c r="E15">
-        <v>13.30819499575705</v>
+        <v>14.08875982641322</v>
       </c>
       <c r="F15">
-        <v>24.64294740633346</v>
+        <v>32.46473209726106</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>13.44025809311534</v>
+        <v>21.92732618506323</v>
       </c>
       <c r="J15">
-        <v>6.923877959220559</v>
+        <v>9.923190651327063</v>
       </c>
       <c r="K15">
-        <v>14.86954729800473</v>
+        <v>11.31737972285759</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.39675569912819</v>
+        <v>18.6190542574319</v>
       </c>
       <c r="O15">
-        <v>16.14875293865079</v>
+        <v>24.24773239984489</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.13678400946172</v>
+        <v>11.28656952229423</v>
       </c>
       <c r="C16">
-        <v>9.687286171109182</v>
+        <v>6.055785080066321</v>
       </c>
       <c r="D16">
-        <v>9.152135471694972</v>
+        <v>9.562612120854869</v>
       </c>
       <c r="E16">
-        <v>12.96588853785196</v>
+        <v>14.02611551331224</v>
       </c>
       <c r="F16">
-        <v>24.28864610762363</v>
+        <v>32.46238946777735</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>13.48414995942333</v>
+        <v>21.97427080750683</v>
       </c>
       <c r="J16">
-        <v>6.829053517428207</v>
+        <v>9.920459765479116</v>
       </c>
       <c r="K16">
-        <v>14.41794966219629</v>
+        <v>11.18014403618528</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.53145853402821</v>
+        <v>18.65568798740462</v>
       </c>
       <c r="O16">
-        <v>16.06174860898937</v>
+        <v>24.27977744166421</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.804590017463</v>
+        <v>11.16534047827763</v>
       </c>
       <c r="C17">
-        <v>9.489357412663352</v>
+        <v>5.973149328450774</v>
       </c>
       <c r="D17">
-        <v>8.992846477572927</v>
+        <v>9.529250730623426</v>
       </c>
       <c r="E17">
-        <v>12.75341253828892</v>
+        <v>13.9882938794545</v>
       </c>
       <c r="F17">
-        <v>24.07526962064594</v>
+        <v>32.46294510629769</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>13.51474631729711</v>
+        <v>22.00412558333349</v>
       </c>
       <c r="J17">
-        <v>6.771377148426963</v>
+        <v>9.919195137530565</v>
       </c>
       <c r="K17">
-        <v>14.13428583397152</v>
+        <v>11.09548854917291</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.61462550187795</v>
+        <v>18.67859499361972</v>
       </c>
       <c r="O17">
-        <v>16.01265807792147</v>
+        <v>24.30074531614047</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.61053769959327</v>
+        <v>11.09514056666594</v>
       </c>
       <c r="C18">
-        <v>9.373799960592939</v>
+        <v>5.925146035354492</v>
       </c>
       <c r="D18">
-        <v>8.900307963734305</v>
+        <v>9.510168477661475</v>
       </c>
       <c r="E18">
-        <v>12.63031564554107</v>
+        <v>13.96676924577267</v>
       </c>
       <c r="F18">
-        <v>23.95401646452061</v>
+        <v>32.46399750485921</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>13.5336497209886</v>
+        <v>22.02168497717166</v>
       </c>
       <c r="J18">
-        <v>6.738391545308281</v>
+        <v>9.918619020832962</v>
       </c>
       <c r="K18">
-        <v>13.96868848818634</v>
+        <v>11.04664257124749</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.66266388171259</v>
+        <v>18.69193011652229</v>
       </c>
       <c r="O18">
-        <v>15.98596564205979</v>
+        <v>24.31328612328838</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.54432127118059</v>
+        <v>11.07129338897521</v>
       </c>
       <c r="C19">
-        <v>9.334378998459822</v>
+        <v>5.908813038213057</v>
       </c>
       <c r="D19">
-        <v>8.868819648044795</v>
+        <v>9.503726320297789</v>
       </c>
       <c r="E19">
-        <v>12.58848757732544</v>
+        <v>13.95952130302031</v>
       </c>
       <c r="F19">
-        <v>23.91321695790475</v>
+        <v>32.46447972588719</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>13.54027019158002</v>
+        <v>22.02769685089963</v>
       </c>
       <c r="J19">
-        <v>6.727256139479394</v>
+        <v>9.918449968118097</v>
       </c>
       <c r="K19">
-        <v>13.91220011384979</v>
+        <v>11.03007927034586</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.67896442709517</v>
+        <v>18.69647260764177</v>
       </c>
       <c r="O19">
-        <v>15.97719007512907</v>
+        <v>24.31761472510023</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.84026106725372</v>
+        <v>11.17829495107112</v>
       </c>
       <c r="C20">
-        <v>9.51060447368635</v>
+        <v>5.981995368168603</v>
       </c>
       <c r="D20">
-        <v>9.009898618276313</v>
+        <v>9.532791221736476</v>
       </c>
       <c r="E20">
-        <v>12.77612331889205</v>
+        <v>13.99229644542147</v>
       </c>
       <c r="F20">
-        <v>24.09783153700612</v>
+        <v>32.46281012368404</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>13.51135323028472</v>
+        <v>22.00090735808562</v>
       </c>
       <c r="J20">
-        <v>6.777497550025628</v>
+        <v>9.919314111504749</v>
       </c>
       <c r="K20">
-        <v>14.16473485325404</v>
+        <v>11.10451663217206</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.60575140483133</v>
+        <v>18.67613999157157</v>
       </c>
       <c r="O20">
-        <v>16.01772342901767</v>
+        <v>24.29846349372521</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.79903433175721</v>
+        <v>11.53199304486849</v>
       </c>
       <c r="C21">
-        <v>10.08228022706165</v>
+        <v>6.222124015631668</v>
       </c>
       <c r="D21">
-        <v>9.472809843835725</v>
+        <v>9.63167841975819</v>
       </c>
       <c r="E21">
-        <v>13.39578513026152</v>
+        <v>14.10511680972772</v>
       </c>
       <c r="F21">
-        <v>24.7356385828536</v>
+        <v>32.4659525337562</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>13.43009686362202</v>
+        <v>21.91553263481163</v>
       </c>
       <c r="J21">
-        <v>6.948507928607603</v>
+        <v>9.92402238938052</v>
       </c>
       <c r="K21">
-        <v>14.9840997623377</v>
+        <v>11.35265381509554</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.36213583159755</v>
+        <v>18.60972985744817</v>
       </c>
       <c r="O21">
-        <v>16.17256508372864</v>
+        <v>24.23986418286232</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.39938434770242</v>
+        <v>11.75844612987035</v>
       </c>
       <c r="C22">
-        <v>10.44083108251709</v>
+        <v>6.374560937936613</v>
       </c>
       <c r="D22">
-        <v>9.766859477645907</v>
+        <v>9.697140319404681</v>
       </c>
       <c r="E22">
-        <v>13.79236919862821</v>
+        <v>14.18077144616164</v>
       </c>
       <c r="F22">
-        <v>25.16531815885601</v>
+        <v>32.4745198705791</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>13.38955346628202</v>
+        <v>21.86319377632709</v>
       </c>
       <c r="J22">
-        <v>7.061820082942108</v>
+        <v>9.928438995859421</v>
       </c>
       <c r="K22">
-        <v>15.4980293633458</v>
+        <v>11.51310009458757</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.20455832650764</v>
+        <v>18.56774106048747</v>
       </c>
       <c r="O22">
-        <v>16.28815589170557</v>
+        <v>24.20585679921923</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.08135440410559</v>
+        <v>11.63803783299685</v>
       </c>
       <c r="C23">
-        <v>10.25083514543734</v>
+        <v>6.293627087501326</v>
       </c>
       <c r="D23">
-        <v>9.610708812466221</v>
+        <v>9.662131341560801</v>
       </c>
       <c r="E23">
-        <v>13.58149480771077</v>
+        <v>14.14022349853714</v>
       </c>
       <c r="F23">
-        <v>24.93483007777663</v>
+        <v>32.46935206470013</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>13.40999613739816</v>
+        <v>21.89081127323377</v>
       </c>
       <c r="J23">
-        <v>7.001207695876947</v>
+        <v>9.9259595959218</v>
       </c>
       <c r="K23">
-        <v>15.22570035174999</v>
+        <v>11.42764127074018</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.28851879933527</v>
+        <v>18.59002223679715</v>
       </c>
       <c r="O23">
-        <v>16.22511527163269</v>
+        <v>24.22361409963854</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.8241437499366</v>
+        <v>11.17243979710239</v>
       </c>
       <c r="C24">
-        <v>9.501004178822004</v>
+        <v>5.977997611796996</v>
       </c>
       <c r="D24">
-        <v>9.002192335611349</v>
+        <v>9.531190260269236</v>
       </c>
       <c r="E24">
-        <v>12.76585870180453</v>
+        <v>13.99048620020815</v>
       </c>
       <c r="F24">
-        <v>24.08762686879888</v>
+        <v>32.46286886610261</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>13.51288316502691</v>
+        <v>22.00236108586131</v>
       </c>
       <c r="J24">
-        <v>6.774729975159036</v>
+        <v>9.919259853146849</v>
       </c>
       <c r="K24">
-        <v>14.15097668776403</v>
+        <v>11.10043558134264</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.60976268275773</v>
+        <v>18.67724938213366</v>
       </c>
       <c r="O24">
-        <v>16.01542862438454</v>
+        <v>24.29949359158735</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.35382769201387</v>
+        <v>10.65252959041884</v>
       </c>
       <c r="C25">
-        <v>8.626565799158444</v>
+        <v>5.619666703328003</v>
       </c>
       <c r="D25">
-        <v>8.31094122150254</v>
+        <v>9.39407897981306</v>
       </c>
       <c r="E25">
-        <v>11.85265011844818</v>
+        <v>13.83780537589692</v>
       </c>
       <c r="F25">
-        <v>23.23034510062433</v>
+        <v>32.48389137838548</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>13.67326334035573</v>
+        <v>22.13750560257454</v>
       </c>
       <c r="J25">
-        <v>6.537723703656688</v>
+        <v>9.917819324322547</v>
       </c>
       <c r="K25">
-        <v>12.89831981939213</v>
+        <v>10.74182011742914</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.96412357429507</v>
+        <v>18.77744522385475</v>
       </c>
       <c r="O25">
-        <v>15.84781511588168</v>
+        <v>24.3997100659495</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_175/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_175/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.25756710338925</v>
+        <v>13.1713331850603</v>
       </c>
       <c r="C2">
-        <v>5.342309548077196</v>
+        <v>7.925280390252114</v>
       </c>
       <c r="D2">
-        <v>9.297245342656401</v>
+        <v>7.77427215335201</v>
       </c>
       <c r="E2">
-        <v>13.7335740058896</v>
+        <v>11.15523064852126</v>
       </c>
       <c r="F2">
-        <v>32.52346818206429</v>
+        <v>22.64905579245618</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>22.24974157687664</v>
+        <v>13.8291204653739</v>
       </c>
       <c r="J2">
-        <v>9.921764148115141</v>
+        <v>6.37019327007938</v>
       </c>
       <c r="K2">
-        <v>10.47487306526676</v>
+        <v>11.89492065988584</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.85652582045357</v>
+        <v>12.2326791982</v>
       </c>
       <c r="O2">
-        <v>24.48923716574428</v>
+        <v>15.77093825736107</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.984085959012209</v>
+        <v>12.30685367273851</v>
       </c>
       <c r="C3">
-        <v>5.147060776718823</v>
+        <v>7.413764735643685</v>
       </c>
       <c r="D3">
-        <v>9.234468675093204</v>
+        <v>7.394917599759572</v>
       </c>
       <c r="E3">
-        <v>13.66831861141322</v>
+        <v>10.66949428923477</v>
       </c>
       <c r="F3">
-        <v>32.56530234486046</v>
+        <v>22.28671298757861</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>22.33373777365707</v>
+        <v>13.95610517202978</v>
       </c>
       <c r="J3">
-        <v>9.927571469992708</v>
+        <v>6.261377714889961</v>
       </c>
       <c r="K3">
-        <v>10.29322046947316</v>
+        <v>11.16416494332442</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.91345717709838</v>
+        <v>12.41986492609227</v>
       </c>
       <c r="O3">
-        <v>24.55969453908657</v>
+        <v>15.7458148616186</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.813959927715436</v>
+        <v>11.74471233266521</v>
       </c>
       <c r="C4">
-        <v>5.024042825955766</v>
+        <v>7.081706758574533</v>
       </c>
       <c r="D4">
-        <v>9.197417890228213</v>
+        <v>7.154989742000001</v>
       </c>
       <c r="E4">
-        <v>13.63099248755583</v>
+        <v>10.36585265215891</v>
       </c>
       <c r="F4">
-        <v>32.59838166921292</v>
+        <v>22.07989050969182</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>22.38922204329311</v>
+        <v>14.04392731489015</v>
       </c>
       <c r="J4">
-        <v>9.932686044028589</v>
+        <v>6.197014258644797</v>
       </c>
       <c r="K4">
-        <v>10.18169473288713</v>
+        <v>10.69047535985076</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.95006846841527</v>
+        <v>12.53748345070098</v>
       </c>
       <c r="O4">
-        <v>24.60776970458099</v>
+        <v>15.74298323481981</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.7441834292288</v>
+        <v>11.50772367935775</v>
       </c>
       <c r="C5">
-        <v>4.973201039009398</v>
+        <v>6.94185716551018</v>
       </c>
       <c r="D5">
-        <v>9.182708343453506</v>
+        <v>7.055585471527944</v>
       </c>
       <c r="E5">
-        <v>13.61648340286937</v>
+        <v>10.24094341654071</v>
       </c>
       <c r="F5">
-        <v>32.61371867737729</v>
+        <v>21.99954649608381</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>22.41281514391227</v>
+        <v>14.0820967004306</v>
       </c>
       <c r="J5">
-        <v>9.935160187146936</v>
+        <v>6.171419313769378</v>
       </c>
       <c r="K5">
-        <v>10.13630764894357</v>
+        <v>10.49117222330543</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.96540528594443</v>
+        <v>12.58610718438888</v>
       </c>
       <c r="O5">
-        <v>24.62856941878228</v>
+        <v>15.74488814820951</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.73257320973204</v>
+        <v>11.46789328666112</v>
       </c>
       <c r="C6">
-        <v>4.964718264781549</v>
+        <v>6.918361222458118</v>
       </c>
       <c r="D6">
-        <v>9.180289699008878</v>
+        <v>7.038985095150248</v>
       </c>
       <c r="E6">
-        <v>13.61411689918649</v>
+        <v>10.22013733513115</v>
       </c>
       <c r="F6">
-        <v>32.61637745453368</v>
+        <v>21.98644302798625</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>22.416792106563</v>
+        <v>14.08857578708311</v>
       </c>
       <c r="J6">
-        <v>9.93559457725898</v>
+        <v>6.167208054476079</v>
       </c>
       <c r="K6">
-        <v>10.12877652901302</v>
+        <v>10.45770005923258</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.96797719933506</v>
+        <v>12.59422349798011</v>
       </c>
       <c r="O6">
-        <v>24.63209614194815</v>
+        <v>15.74538600205342</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.813020569770766</v>
+        <v>11.74154828995203</v>
       </c>
       <c r="C7">
-        <v>5.023359926888387</v>
+        <v>7.079839064194267</v>
       </c>
       <c r="D7">
-        <v>9.197217920337545</v>
+        <v>7.153655562257494</v>
       </c>
       <c r="E7">
-        <v>13.63079395650545</v>
+        <v>10.36417257066532</v>
       </c>
       <c r="F7">
-        <v>32.59858099417733</v>
+        <v>22.07879102691828</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>22.38953624933868</v>
+        <v>14.04443256323144</v>
       </c>
       <c r="J7">
-        <v>9.932717831942437</v>
+        <v>6.196666488157394</v>
       </c>
       <c r="K7">
-        <v>10.18108230425521</v>
+        <v>10.68781284823511</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.95027361439146</v>
+        <v>12.53813637732803</v>
       </c>
       <c r="O7">
-        <v>24.60804532535969</v>
+        <v>15.742996684431</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.16379096040415</v>
+        <v>12.87974822691211</v>
       </c>
       <c r="C8">
-        <v>5.275682272926254</v>
+        <v>7.752634830160347</v>
       </c>
       <c r="D8">
-        <v>9.275297890751492</v>
+        <v>7.644995337711554</v>
       </c>
       <c r="E8">
-        <v>13.71051277203896</v>
+        <v>10.98897260930198</v>
       </c>
       <c r="F8">
-        <v>32.53635710820753</v>
+        <v>22.52087450484406</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>22.27789161465178</v>
+        <v>13.87080022999569</v>
       </c>
       <c r="J8">
-        <v>9.923445341818041</v>
+        <v>6.332176210874016</v>
       </c>
       <c r="K8">
-        <v>10.41227184375978</v>
+        <v>11.64815163934153</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.87581294114668</v>
+        <v>12.29667441484788</v>
       </c>
       <c r="O8">
-        <v>24.51253063482077</v>
+        <v>15.75959745738063</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.82976924833978</v>
+        <v>14.86451765565085</v>
       </c>
       <c r="C9">
-        <v>5.742607939962267</v>
+        <v>8.929982572899283</v>
       </c>
       <c r="D9">
-        <v>9.439662774317867</v>
+        <v>8.548273734585282</v>
       </c>
       <c r="E9">
-        <v>13.8880027978997</v>
+        <v>12.16444015540471</v>
       </c>
       <c r="F9">
-        <v>32.47306548654721</v>
+        <v>23.51144509520312</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>22.09000344145986</v>
+        <v>13.61306654547062</v>
       </c>
       <c r="J9">
-        <v>9.9175287845464</v>
+        <v>6.616525005568493</v>
       </c>
       <c r="K9">
-        <v>10.86320818063559</v>
+        <v>13.33283440466806</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.74287334184325</v>
+        <v>11.84362706221478</v>
       </c>
       <c r="O9">
-        <v>24.36350302943202</v>
+        <v>15.89678259223708</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.30033681783906</v>
+        <v>16.17428643255442</v>
       </c>
       <c r="C10">
-        <v>6.065149207830128</v>
+        <v>9.709639582749254</v>
       </c>
       <c r="D10">
-        <v>9.566432911740256</v>
+        <v>9.170185674024795</v>
       </c>
       <c r="E10">
-        <v>14.03046189438895</v>
+        <v>12.9900114916922</v>
       </c>
       <c r="F10">
-        <v>32.46242533222458</v>
+        <v>24.31319273709812</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>21.9709167265886</v>
+        <v>13.48083869284451</v>
       </c>
       <c r="J10">
-        <v>9.92062454093602</v>
+        <v>6.835659850770084</v>
       </c>
       <c r="K10">
-        <v>11.18978166969475</v>
+        <v>14.44998737523698</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.65309574235725</v>
+        <v>11.52199554694192</v>
       </c>
       <c r="O10">
-        <v>24.27745002746433</v>
+        <v>16.06756155285963</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.50934082294159</v>
+        <v>16.73844274671056</v>
       </c>
       <c r="C11">
-        <v>6.206822168571673</v>
+        <v>10.04611803032</v>
       </c>
       <c r="D11">
-        <v>9.625220308046025</v>
+        <v>9.443304536146265</v>
       </c>
       <c r="E11">
-        <v>14.09769235535218</v>
+        <v>13.35611445915777</v>
       </c>
       <c r="F11">
-        <v>32.46536903938014</v>
+        <v>24.69355674759978</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>21.92086331595034</v>
+        <v>13.43464498335512</v>
       </c>
       <c r="J11">
-        <v>9.923639104852251</v>
+        <v>6.937334572327971</v>
       </c>
       <c r="K11">
-        <v>11.33667009771465</v>
+        <v>14.93226627903843</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.61395060943256</v>
+        <v>11.37782353557664</v>
       </c>
       <c r="O11">
-        <v>24.24341141619842</v>
+        <v>16.16170264985087</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.58768337372814</v>
+        <v>16.94756688008759</v>
       </c>
       <c r="C12">
-        <v>6.259701194822862</v>
+        <v>10.1709467919609</v>
       </c>
       <c r="D12">
-        <v>9.647626139655562</v>
+        <v>9.545274562055585</v>
       </c>
       <c r="E12">
-        <v>14.12348195915714</v>
+        <v>13.49331261735739</v>
       </c>
       <c r="F12">
-        <v>32.46760147230453</v>
+        <v>24.8397979117</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>21.90250244880759</v>
+        <v>13.41929607566624</v>
       </c>
       <c r="J12">
-        <v>9.925010559799112</v>
+        <v>6.976103338546272</v>
       </c>
       <c r="K12">
-        <v>11.39200130176243</v>
+        <v>15.11119131440771</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.59936988239864</v>
+        <v>11.32351208097421</v>
       </c>
       <c r="O12">
-        <v>24.23125774153415</v>
+        <v>16.19981397714028</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.57084773038122</v>
+        <v>16.90272810489209</v>
       </c>
       <c r="C13">
-        <v>6.248347595968555</v>
+        <v>10.14417733703999</v>
       </c>
       <c r="D13">
-        <v>9.642794490392625</v>
+        <v>9.523378780623935</v>
       </c>
       <c r="E13">
-        <v>14.11791328031119</v>
+        <v>13.46382951042403</v>
       </c>
       <c r="F13">
-        <v>32.46707100132702</v>
+        <v>24.80820486950537</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>21.9064303902375</v>
+        <v>13.42250416045842</v>
       </c>
       <c r="J13">
-        <v>9.924704985830539</v>
+        <v>6.96774221915282</v>
       </c>
       <c r="K13">
-        <v>11.38009853395669</v>
+        <v>15.07282089471696</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.602499326349</v>
+        <v>11.33519682396147</v>
       </c>
       <c r="O13">
-        <v>24.23384249499174</v>
+        <v>16.19149503010741</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.51580260617686</v>
+        <v>16.75573763691316</v>
       </c>
       <c r="C14">
-        <v>6.211188204740107</v>
+        <v>10.05643947527356</v>
       </c>
       <c r="D14">
-        <v>9.627060852604943</v>
+        <v>9.451723038840711</v>
       </c>
       <c r="E14">
-        <v>14.09980755430638</v>
+        <v>13.36743102004407</v>
       </c>
       <c r="F14">
-        <v>32.46553031434635</v>
+        <v>24.70554414634433</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>21.91934086130616</v>
+        <v>13.43333845418067</v>
       </c>
       <c r="J14">
-        <v>9.923747334250105</v>
+        <v>6.940518861398871</v>
       </c>
       <c r="K14">
-        <v>11.34122837450082</v>
+        <v>14.94706062108978</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.61274618658626</v>
+        <v>11.37334976478596</v>
       </c>
       <c r="O14">
-        <v>24.24239676681063</v>
+        <v>16.16478821084515</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.48197922368368</v>
+        <v>16.6651157772615</v>
       </c>
       <c r="C15">
-        <v>6.188325621815814</v>
+        <v>10.00236128370751</v>
       </c>
       <c r="D15">
-        <v>9.617441844246123</v>
+        <v>9.4076412796284</v>
       </c>
       <c r="E15">
-        <v>14.08875982641322</v>
+        <v>13.30819499575702</v>
       </c>
       <c r="F15">
-        <v>32.46473209726106</v>
+        <v>24.6429474063335</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>21.92732618506323</v>
+        <v>13.44025809311545</v>
       </c>
       <c r="J15">
-        <v>9.923190651327063</v>
+        <v>6.923877959220586</v>
       </c>
       <c r="K15">
-        <v>11.31737972285759</v>
+        <v>14.8695472980047</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.6190542574319</v>
+        <v>11.39675569912825</v>
       </c>
       <c r="O15">
-        <v>24.24773239984489</v>
+        <v>16.14875293865089</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.28656952229423</v>
+        <v>16.13678400946174</v>
       </c>
       <c r="C16">
-        <v>6.055785080066321</v>
+        <v>9.687286171109232</v>
       </c>
       <c r="D16">
-        <v>9.562612120854869</v>
+        <v>9.152135471694981</v>
       </c>
       <c r="E16">
-        <v>14.02611551331224</v>
+        <v>12.96588853785197</v>
       </c>
       <c r="F16">
-        <v>32.46238946777735</v>
+        <v>24.28864610762365</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>21.97427080750683</v>
+        <v>13.48414995942332</v>
       </c>
       <c r="J16">
-        <v>9.920459765479116</v>
+        <v>6.829053517428192</v>
       </c>
       <c r="K16">
-        <v>11.18014403618528</v>
+        <v>14.41794966219631</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.65568798740462</v>
+        <v>11.53145853402814</v>
       </c>
       <c r="O16">
-        <v>24.27977744166421</v>
+        <v>16.06174860898935</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.16534047827763</v>
+        <v>15.80459001746298</v>
       </c>
       <c r="C17">
-        <v>5.973149328450774</v>
+        <v>9.48935741266336</v>
       </c>
       <c r="D17">
-        <v>9.529250730623426</v>
+        <v>8.992846477572902</v>
       </c>
       <c r="E17">
-        <v>13.9882938794545</v>
+        <v>12.75341253828892</v>
       </c>
       <c r="F17">
-        <v>32.46294510629769</v>
+        <v>24.075269620646</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>22.00412558333349</v>
+        <v>13.51474631729723</v>
       </c>
       <c r="J17">
-        <v>9.919195137530565</v>
+        <v>6.771377148426963</v>
       </c>
       <c r="K17">
-        <v>11.09548854917291</v>
+        <v>14.13428583397151</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.67859499361972</v>
+        <v>11.61462550187802</v>
       </c>
       <c r="O17">
-        <v>24.30074531614047</v>
+        <v>16.01265807792154</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.09514056666594</v>
+        <v>15.61053769959327</v>
       </c>
       <c r="C18">
-        <v>5.925146035354492</v>
+        <v>9.373799960592955</v>
       </c>
       <c r="D18">
-        <v>9.510168477661475</v>
+        <v>8.900307963734344</v>
       </c>
       <c r="E18">
-        <v>13.96676924577267</v>
+        <v>12.63031564554105</v>
       </c>
       <c r="F18">
-        <v>32.46399750485921</v>
+        <v>23.95401646452058</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>22.02168497717166</v>
+        <v>13.53364972098854</v>
       </c>
       <c r="J18">
-        <v>9.918619020832962</v>
+        <v>6.738391545308272</v>
       </c>
       <c r="K18">
-        <v>11.04664257124749</v>
+        <v>13.96868848818634</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.69193011652229</v>
+        <v>11.66266388171255</v>
       </c>
       <c r="O18">
-        <v>24.31328612328838</v>
+        <v>15.98596564205976</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.07129338897521</v>
+        <v>15.54432127118063</v>
       </c>
       <c r="C19">
-        <v>5.908813038213057</v>
+        <v>9.334378998459822</v>
       </c>
       <c r="D19">
-        <v>9.503726320297789</v>
+        <v>8.86881964804482</v>
       </c>
       <c r="E19">
-        <v>13.95952130302031</v>
+        <v>12.58848757732544</v>
       </c>
       <c r="F19">
-        <v>32.46447972588719</v>
+        <v>23.91321695790466</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>22.02769685089963</v>
+        <v>13.54027019157991</v>
       </c>
       <c r="J19">
-        <v>9.918449968118097</v>
+        <v>6.727256139479371</v>
       </c>
       <c r="K19">
-        <v>11.03007927034586</v>
+        <v>13.91220011384981</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.69647260764177</v>
+        <v>11.67896442709507</v>
       </c>
       <c r="O19">
-        <v>24.31761472510023</v>
+        <v>15.97719007512894</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.17829495107112</v>
+        <v>15.84026106725381</v>
       </c>
       <c r="C20">
-        <v>5.981995368168603</v>
+        <v>9.510604473686318</v>
       </c>
       <c r="D20">
-        <v>9.532791221736476</v>
+        <v>9.009898618276278</v>
       </c>
       <c r="E20">
-        <v>13.99229644542147</v>
+        <v>12.77612331889204</v>
       </c>
       <c r="F20">
-        <v>32.46281012368404</v>
+        <v>24.09783153700602</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>22.00090735808562</v>
+        <v>13.51135323028464</v>
       </c>
       <c r="J20">
-        <v>9.919314111504749</v>
+        <v>6.777497550025655</v>
       </c>
       <c r="K20">
-        <v>11.10451663217206</v>
+        <v>14.16473485325407</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.67613999157157</v>
+        <v>11.60575140483129</v>
       </c>
       <c r="O20">
-        <v>24.29846349372521</v>
+        <v>16.01772342901758</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.53199304486849</v>
+        <v>16.79903433175723</v>
       </c>
       <c r="C21">
-        <v>6.222124015631668</v>
+        <v>10.0822802270616</v>
       </c>
       <c r="D21">
-        <v>9.63167841975819</v>
+        <v>9.472809843835771</v>
       </c>
       <c r="E21">
-        <v>14.10511680972772</v>
+        <v>13.39578513026155</v>
       </c>
       <c r="F21">
-        <v>32.4659525337562</v>
+        <v>24.73563858285364</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>21.91553263481163</v>
+        <v>13.43009686362195</v>
       </c>
       <c r="J21">
-        <v>9.92402238938052</v>
+        <v>6.948507928607564</v>
       </c>
       <c r="K21">
-        <v>11.35265381509554</v>
+        <v>14.98409976233769</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.60972985744817</v>
+        <v>11.36213583159751</v>
       </c>
       <c r="O21">
-        <v>24.23986418286232</v>
+        <v>16.17256508372861</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.75844612987035</v>
+        <v>17.39938434770238</v>
       </c>
       <c r="C22">
-        <v>6.374560937936613</v>
+        <v>10.44083108251711</v>
       </c>
       <c r="D22">
-        <v>9.697140319404681</v>
+        <v>9.766859477645873</v>
       </c>
       <c r="E22">
-        <v>14.18077144616164</v>
+        <v>13.7923691986282</v>
       </c>
       <c r="F22">
-        <v>32.4745198705791</v>
+        <v>25.16531815885597</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>21.86319377632709</v>
+        <v>13.38955346628202</v>
       </c>
       <c r="J22">
-        <v>9.928438995859421</v>
+        <v>7.061820082942146</v>
       </c>
       <c r="K22">
-        <v>11.51310009458757</v>
+        <v>15.49802936334575</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.56774106048747</v>
+        <v>11.20455832650761</v>
       </c>
       <c r="O22">
-        <v>24.20585679921923</v>
+        <v>16.28815589170556</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.63803783299685</v>
+        <v>17.08135440410554</v>
       </c>
       <c r="C23">
-        <v>6.293627087501326</v>
+        <v>10.25083514543748</v>
       </c>
       <c r="D23">
-        <v>9.662131341560801</v>
+        <v>9.610708812466221</v>
       </c>
       <c r="E23">
-        <v>14.14022349853714</v>
+        <v>13.58149480771077</v>
       </c>
       <c r="F23">
-        <v>32.46935206470013</v>
+        <v>24.93483007777669</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>21.89081127323377</v>
+        <v>13.40999613739828</v>
       </c>
       <c r="J23">
-        <v>9.9259595959218</v>
+        <v>7.001207695876954</v>
       </c>
       <c r="K23">
-        <v>11.42764127074018</v>
+        <v>15.22570035175002</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.59002223679715</v>
+        <v>11.28851879933537</v>
       </c>
       <c r="O23">
-        <v>24.22361409963854</v>
+        <v>16.22511527163272</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.17243979710239</v>
+        <v>15.82414374993653</v>
       </c>
       <c r="C24">
-        <v>5.977997611796996</v>
+        <v>9.501004178822088</v>
       </c>
       <c r="D24">
-        <v>9.531190260269236</v>
+        <v>9.002192335611374</v>
       </c>
       <c r="E24">
-        <v>13.99048620020815</v>
+        <v>12.76585870180456</v>
       </c>
       <c r="F24">
-        <v>32.46286886610261</v>
+        <v>24.08762686879898</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>22.00236108586131</v>
+        <v>13.512883165027</v>
       </c>
       <c r="J24">
-        <v>9.919259853146849</v>
+        <v>6.774729975159042</v>
       </c>
       <c r="K24">
-        <v>11.10043558134264</v>
+        <v>14.15097668776398</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.67724938213366</v>
+        <v>11.60976268275776</v>
       </c>
       <c r="O24">
-        <v>24.29949359158735</v>
+        <v>16.0154286243846</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.65252959041884</v>
+        <v>14.35382769201391</v>
       </c>
       <c r="C25">
-        <v>5.619666703328003</v>
+        <v>8.626565799158396</v>
       </c>
       <c r="D25">
-        <v>9.39407897981306</v>
+        <v>8.310941221502603</v>
       </c>
       <c r="E25">
-        <v>13.83780537589692</v>
+        <v>11.8526501184482</v>
       </c>
       <c r="F25">
-        <v>32.48389137838548</v>
+        <v>23.23034510062443</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>22.13750560257454</v>
+        <v>13.67326334035578</v>
       </c>
       <c r="J25">
-        <v>9.917819324322547</v>
+        <v>6.537723703656692</v>
       </c>
       <c r="K25">
-        <v>10.74182011742914</v>
+        <v>12.89831981939216</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.77744522385475</v>
+        <v>11.9641235742951</v>
       </c>
       <c r="O25">
-        <v>24.3997100659495</v>
+        <v>15.84781511588173</v>
       </c>
     </row>
   </sheetData>
